--- a/data/trans_camb/P2C_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.254196946100355</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>9.662587746595706</v>
+        <v>9.662587746595705</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.136959277355579</v>
@@ -664,7 +664,7 @@
         <v>1.34630169159162</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.58234282350199</v>
+        <v>10.58234282350198</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4435014427141745</v>
+        <v>0.4789015084608072</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3343045729529528</v>
+        <v>-0.425655435167392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.320951845871654</v>
+        <v>5.593219941986812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.299399193361104</v>
+        <v>-1.401426113883114</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.575834567542649</v>
+        <v>-1.923809526799836</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.224808800229616</v>
+        <v>4.126756108201453</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3553990447874544</v>
+        <v>0.3337619670150995</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.230856474858001</v>
+        <v>-0.2582815116438248</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.136545362542756</v>
+        <v>6.503263203878938</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.030122403483447</v>
+        <v>5.741924815984937</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.758012853854801</v>
+        <v>3.634558041707237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.79847267949834</v>
+        <v>19.66027019556706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.437533431561436</v>
+        <v>5.71490275101171</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.715581571887601</v>
+        <v>4.532253260993073</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.81116496007333</v>
+        <v>16.71634548954038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.403124171121502</v>
+        <v>4.51529601248544</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.258617036228347</v>
+        <v>3.416957830088498</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.4703959230083</v>
+        <v>16.52515562244502</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.6230934165295012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4.800438105245285</v>
+        <v>4.800438105245284</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.774269871368904</v>
@@ -769,7 +769,7 @@
         <v>1.117804421673372</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8.786284436580912</v>
+        <v>8.786284436580907</v>
       </c>
     </row>
     <row r="8">
@@ -779,30 +779,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.4892945133085442</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>2.123229778688354</v>
+        <v>2.886262333618955</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6628913019600384</v>
+        <v>-0.5562832291556621</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5941907373191815</v>
+        <v>-0.6432306159457767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8060148476614878</v>
+        <v>0.856522727789393</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07238491943382259</v>
+        <v>-0.07235442987545965</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2304613793668333</v>
+        <v>-0.3469979799735095</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>3.08740085581045</v>
+        <v>3.198680481720376</v>
       </c>
     </row>
     <row r="9">
@@ -816,22 +814,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>6.971509848453672</v>
+        <v>8.868031116680347</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.020649084081418</v>
+        <v>6.418755292534295</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>23.83339534711356</v>
+        <v>24.70699014905183</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.952950076671199</v>
+        <v>6.916102845009373</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.71390069325537</v>
+        <v>6.093056093254362</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>29.32304740191382</v>
+        <v>32.82902444918226</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +850,7 @@
         <v>-1.349355212152606</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.014266635105995</v>
+        <v>8.014266635105999</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3025532855281104</v>
@@ -881,31 +879,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.134895646705595</v>
+        <v>-6.060480562778257</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.082152263353657</v>
+        <v>-5.297576406440623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.05522514988637</v>
+        <v>1.53805079096983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.65758901053358</v>
+        <v>-1.695152301698983</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.499482156793524</v>
+        <v>-1.433850084968457</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.393362219305653</v>
+        <v>8.672680979257755</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.866430202592394</v>
+        <v>-2.605319146959226</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.509726465809993</v>
+        <v>-2.40318420165581</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.744687566771177</v>
+        <v>6.894496282573456</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +914,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3969406801354846</v>
+        <v>0.3406419680295975</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.370983824777126</v>
+        <v>1.068132753929582</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.740471920996</v>
+        <v>15.86539249577391</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.279188135953047</v>
+        <v>2.202181955926847</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.980965586694331</v>
+        <v>3.005675396090494</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.65260889823614</v>
+        <v>22.07705662044718</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8532432741058112</v>
+        <v>0.8400872647346224</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.450292318346804</v>
+        <v>1.365443769161623</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.85898140800823</v>
+        <v>16.82478711835211</v>
       </c>
     </row>
     <row r="13">
@@ -957,7 +955,7 @@
         <v>-0.4988555901122439</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>2.962868246675226</v>
+        <v>2.962868246675227</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3119800029269549</v>
@@ -988,21 +986,21 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>0.02712628806883002</v>
+        <v>-0.06893372651090492</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>3.164617753772119</v>
+        <v>3.043103462048793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8851535695885026</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8345173619955149</v>
+        <v>-0.814176110087132</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.023794768766016</v>
+        <v>1.867637325105805</v>
       </c>
     </row>
     <row r="15">
@@ -1015,19 +1013,19 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>15.4118800012561</v>
+        <v>17.02781317049057</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>1.427323252691627</v>
+        <v>1.649652458741894</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.009871879067316</v>
+        <v>1.841389489656468</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21.04446612629505</v>
+        <v>20.32902976394865</v>
       </c>
     </row>
     <row r="16">
@@ -1077,31 +1075,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8574753142885657</v>
+        <v>-0.8283516848942636</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6399459012086745</v>
+        <v>-0.5861196303573967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.410433562975642</v>
+        <v>8.697151362176868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.616653021751814</v>
+        <v>-3.649131220043283</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.546659577203866</v>
+        <v>-4.625241973050675</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.79611762505452</v>
+        <v>19.01706359756548</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9315659647965393</v>
+        <v>-1.071860825693577</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9101840915448156</v>
+        <v>-0.9174634453194738</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.00948895105518</v>
+        <v>12.52192385286721</v>
       </c>
     </row>
     <row r="18">
@@ -1112,31 +1110,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.617071509754279</v>
+        <v>1.647645504460216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.035882132066525</v>
+        <v>2.015293317512866</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.75364661884378</v>
+        <v>21.71467754688573</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.143937201120999</v>
+        <v>1.138249175155735</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44.78438519616761</v>
+        <v>43.03131844119525</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.149038236732595</v>
+        <v>1.184908435627646</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.311108665815889</v>
+        <v>1.294925047800383</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25.02716831281176</v>
+        <v>24.45629793849474</v>
       </c>
     </row>
     <row r="19">
@@ -1184,17 +1182,19 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>4.794966110224104</v>
+        <v>5.450996789617986</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.8532329985549284</v>
-      </c>
-      <c r="J20" s="6" t="inlineStr"/>
+        <v>-0.8670035238033658</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="K20" s="6" t="n">
-        <v>7.904324708206676</v>
+        <v>8.072688389075628</v>
       </c>
     </row>
     <row r="21">
@@ -1213,7 +1213,7 @@
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>102.9390288376213</v>
+        <v>99.29945385766352</v>
       </c>
     </row>
     <row r="22">
@@ -1243,7 +1243,7 @@
         <v>-1.12102890025182</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.047671522086072</v>
+        <v>9.047671522086068</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2194979608977033</v>
@@ -1263,31 +1263,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6896299459561894</v>
+        <v>-0.689572287521066</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2762983033698637</v>
+        <v>-0.2669923379592846</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.41589580316881</v>
+        <v>12.26289425760914</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.422101134242904</v>
+        <v>-2.377640348095186</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.045908940470356</v>
+        <v>-3.056993007499546</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.656359652250911</v>
+        <v>5.690233375342568</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.081148877069777</v>
+        <v>-1.005104657368738</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.029878289228318</v>
+        <v>-1.052964619835529</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.82093025020942</v>
+        <v>10.38975908784277</v>
       </c>
     </row>
     <row r="24">
@@ -1298,31 +1298,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2275765551629755</v>
+        <v>0.2252900803295203</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.286644186534068</v>
+        <v>1.294490516522674</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25.02891827448347</v>
+        <v>23.62505097053792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.268509276986309</v>
+        <v>1.294390306974926</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06530224346867512</v>
+        <v>-0.009075422291637983</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.57447205182309</v>
+        <v>13.20817556733634</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.524831802491735</v>
+        <v>0.4744595481294074</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4480669283284738</v>
+        <v>0.4699678893542372</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.02871451586937</v>
+        <v>17.39988028921492</v>
       </c>
     </row>
     <row r="25">
@@ -1348,7 +1348,7 @@
         <v>-0.6608715468246996</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>5.333804215591275</v>
+        <v>5.333804215591273</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2716953066960475</v>
@@ -1370,23 +1370,25 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>16.29663312284319</v>
+        <v>15.09303852769014</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8697122014855662</v>
-      </c>
-      <c r="G26" s="6" t="inlineStr"/>
+        <v>-0.8502319124565387</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H26" s="6" t="n">
-        <v>1.827518874403851</v>
+        <v>1.678702557481349</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.829765255975654</v>
+        <v>-0.8192697110795271</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8300222455556715</v>
+        <v>-0.8340294620056993</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7.500725335789753</v>
+        <v>7.224381161777709</v>
       </c>
     </row>
     <row r="27">
@@ -1400,20 +1402,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>1.905429110597246</v>
-      </c>
-      <c r="G27" s="6" t="inlineStr"/>
+        <v>2.090331612507602</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.3964188752872265</v>
+      </c>
       <c r="H27" s="6" t="n">
-        <v>14.74061792309068</v>
+        <v>16.57355344204316</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.607229701427443</v>
+        <v>1.242866524415957</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.166136537577554</v>
+        <v>1.36381890971478</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>38.62628625379914</v>
+        <v>39.49012062546517</v>
       </c>
     </row>
     <row r="28">
@@ -1434,7 +1438,7 @@
         <v>0.7606124722338754</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16.61337620625323</v>
+        <v>16.61337620625322</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.9901240688363953</v>
@@ -1466,28 +1470,28 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2158000193320183</v>
+        <v>0.2142008845801215</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.02010360627887</v>
+        <v>10.58687626461423</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3854491132591719</v>
+        <v>0.3405132069245675</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2061094613254683</v>
+        <v>0.2094049445004044</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.72569590970502</v>
+        <v>13.05570382838772</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3601077643910808</v>
+        <v>0.3605582730286138</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3515739780499358</v>
+        <v>0.3354230967742589</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>13.10473072109773</v>
+        <v>13.5405299577758</v>
       </c>
     </row>
     <row r="30">
@@ -1498,31 +1502,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.454849147719491</v>
+        <v>2.398853566540899</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.040068355617645</v>
+        <v>2.084067718304795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25.4830524917166</v>
+        <v>26.19267739207259</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.261340793879105</v>
+        <v>2.286095776139944</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.918422705472851</v>
+        <v>2.102654640972476</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.36693069074208</v>
+        <v>20.49836336695109</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.794014053135491</v>
+        <v>1.713552643909178</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.544070787793473</v>
+        <v>1.609218220795092</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.15976288705855</v>
+        <v>19.99637615923987</v>
       </c>
     </row>
     <row r="31">
@@ -1639,7 +1643,7 @@
         <v>0.3933163291837709</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>20.38119474737133</v>
+        <v>20.38119474737134</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.257934211265021</v>
@@ -1661,25 +1665,25 @@
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>2.705815681502425</v>
+        <v>2.375334079010106</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.2520454116141981</v>
+        <v>-0.2592039749004553</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.2214915388238627</v>
+        <v>-0.2518319449586481</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>16.10000211796466</v>
+        <v>16.29623678045867</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.2282595141182863</v>
+        <v>-0.311396005184957</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.2139719490135951</v>
+        <v>-0.172039809044114</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>16.07217855573162</v>
+        <v>15.9309980312513</v>
       </c>
     </row>
     <row r="36">
@@ -1692,25 +1696,25 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>49.52718486069568</v>
+        <v>49.84945671719896</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.086882652403258</v>
+        <v>1.099047601034666</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.25688067363361</v>
+        <v>1.264038417592578</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>24.59195496435651</v>
+        <v>24.68857389494806</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9551363235544088</v>
+        <v>0.8733140340421206</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.138271006637078</v>
+        <v>1.072454844837287</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>24.91600660333875</v>
+        <v>25.1193353130429</v>
       </c>
     </row>
     <row r="37">
@@ -1734,7 +1738,7 @@
         <v>1.49786949889495</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>77.61785539512036</v>
+        <v>77.61785539512037</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.103118093191975</v>
@@ -1743,7 +1747,7 @@
         <v>1.452734740754514</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>85.40198910321764</v>
+        <v>85.40198910321767</v>
       </c>
     </row>
     <row r="38">
@@ -1756,15 +1760,17 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
-      <c r="F38" s="6" t="inlineStr"/>
+      <c r="F38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>21.20403529010697</v>
+        <v>18.62608942135465</v>
       </c>
       <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>25.37541648369533</v>
+        <v>20.82714308730466</v>
       </c>
     </row>
     <row r="39">
@@ -1802,7 +1808,7 @@
         <v>0.3499433051908045</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>14.60688393692096</v>
+        <v>14.60688393692097</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.3697814284452959</v>
@@ -1831,31 +1837,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3471080163231574</v>
+        <v>-0.3008386391121763</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.2240390580619843</v>
+        <v>-0.2244996758665784</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11.65593627507696</v>
+        <v>12.09338077767947</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.1651406399320227</v>
+        <v>-0.2596587947801053</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.3727613435102056</v>
+        <v>-0.391673804103932</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.90495080307617</v>
+        <v>13.87618947359737</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.1198315973538921</v>
+        <v>-0.1449366276943113</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.1503589530516405</v>
+        <v>-0.139003382343786</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.70020637289377</v>
+        <v>13.69661866970168</v>
       </c>
     </row>
     <row r="42">
@@ -1866,31 +1872,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.7691612991915685</v>
+        <v>0.8028602630281141</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.9203645069841312</v>
+        <v>0.9099673850652866</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18.09784056401647</v>
+        <v>18.36982276693043</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.9882199780195925</v>
+        <v>0.9649786432541395</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.7334094330835961</v>
+        <v>0.7714901416852102</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>18.21314292205552</v>
+        <v>18.13845626964503</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7058461553899154</v>
+        <v>0.7119770715965189</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6774730847356234</v>
+        <v>0.7140316885663086</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>17.14639189765751</v>
+        <v>17.09107254030421</v>
       </c>
     </row>
     <row r="43">
@@ -1907,7 +1913,7 @@
         <v>0.6039854973527832</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>25.21078680046544</v>
+        <v>25.21078680046546</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4798879691234604</v>
@@ -1925,7 +1931,7 @@
         <v>0.3911623523528138</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>22.37395979462017</v>
+        <v>22.37395979462018</v>
       </c>
     </row>
     <row r="44">
@@ -1936,31 +1942,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4679811633385102</v>
+        <v>-0.4174716245876418</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3330224497924832</v>
+        <v>-0.3373514642832369</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>12.26053470546361</v>
+        <v>12.73209416753552</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1847376978988841</v>
+        <v>-0.2632985578056846</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3563011868955724</v>
+        <v>-0.3929285388069885</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>11.85044222099099</v>
+        <v>12.10588188070617</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1610931742868375</v>
+        <v>-0.1799121366536117</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1654960755630421</v>
+        <v>-0.1854935504551751</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>14.43384131269653</v>
+        <v>14.59903095933648</v>
       </c>
     </row>
     <row r="45">
@@ -1971,31 +1977,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.387941913985397</v>
+        <v>2.396042135035047</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.819090453344378</v>
+        <v>2.588730346010644</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>54.18417702601813</v>
+        <v>54.52088763738821</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.012072746749351</v>
+        <v>1.951196043600223</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.447961284196957</v>
+        <v>1.578080549870498</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>36.11764360878716</v>
+        <v>36.85500986724489</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.391411152032596</v>
+        <v>1.392126031726773</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.352285580747697</v>
+        <v>1.445584174360131</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>34.77861027175764</v>
+        <v>34.17083247220014</v>
       </c>
     </row>
     <row r="46">
